--- a/Excel/镇魂街/jump.跳转表.xlsx
+++ b/Excel/镇魂街/jump.跳转表.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>sheet名</t>
   </si>
@@ -365,6 +365,14 @@
   </si>
   <si>
     <t>param</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点金手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能分解</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -985,10 +993,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1506,7 +1514,7 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>40103</v>
       </c>
@@ -1579,6 +1587,26 @@
         <v>76</v>
       </c>
       <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>60100</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>60200</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:D3">

--- a/Excel/镇魂街/jump.跳转表.xlsx
+++ b/Excel/镇魂街/jump.跳转表.xlsx
@@ -1,24 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="跳转类型" sheetId="26" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">跳转类型!$A$3:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">跳转类型!$A$3:$D$47</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,15 +23,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -44,9 +37,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -59,36 +50,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>sheet名</t>
   </si>
   <si>
     <t>导出客户端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>导出服务端文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>主键</t>
   </si>
   <si>
+    <t>屏蔽字段</t>
+  </si>
+  <si>
+    <t>表注释</t>
+  </si>
+  <si>
     <t>是否导出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏蔽字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>表注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>常驻内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>#note</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>int:&lt;&gt;</t>
+  </si>
+  <si>
+    <t>string:&lt;</t>
   </si>
   <si>
     <t>界面ID</t>
@@ -103,6 +106,150 @@
     <t>参数说明</t>
   </si>
   <si>
+    <t>冒险</t>
+  </si>
+  <si>
+    <t>章ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否切换到指定章；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>关卡详情页</t>
+  </si>
+  <si>
+    <t>关卡ID</t>
+  </si>
+  <si>
+    <t>参数不可为空</t>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+  </si>
+  <si>
+    <t>门ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定门；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>恶灵入侵</t>
+  </si>
+  <si>
+    <t>恶灵组ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定恶灵组；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>集训营</t>
+  </si>
+  <si>
+    <t>集训组ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定集训组；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>派遣挂机</t>
+  </si>
+  <si>
+    <t>章节Id</t>
+  </si>
+  <si>
+    <t>寄灵人列表</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定寄灵人；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>寄灵人属性页</t>
+  </si>
+  <si>
+    <t>寄灵人ID</t>
+  </si>
+  <si>
+    <t>寄灵人技能页</t>
+  </si>
+  <si>
+    <t>寄灵人升星页</t>
+  </si>
+  <si>
+    <t>寄灵人天赋页</t>
+  </si>
+  <si>
+    <t>寄灵人培养页</t>
+  </si>
+  <si>
+    <t>寄灵人缘分页</t>
+  </si>
+  <si>
+    <t>守护灵列表</t>
+  </si>
+  <si>
+    <t>守护灵ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定守护灵；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>守护灵升级页</t>
+  </si>
+  <si>
+    <t>守护灵突破页</t>
+  </si>
+  <si>
+    <t>守护灵奥义升级页</t>
+  </si>
+  <si>
+    <t>守护灵奥义觉醒页</t>
+  </si>
+  <si>
+    <t>守护灵升星页</t>
+  </si>
+  <si>
+    <t>守护灵武器解封页</t>
+  </si>
+  <si>
+    <t>守护灵武器强化页</t>
+  </si>
+  <si>
+    <t>守护灵武灵技学习页</t>
+  </si>
+  <si>
+    <t>守护灵缘分页</t>
+  </si>
+  <si>
+    <t>地狱道</t>
+  </si>
+  <si>
+    <t>武灵技背包全部页</t>
+  </si>
+  <si>
+    <t>武灵技ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定武灵技；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>神器</t>
+  </si>
+  <si>
+    <t>神器ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否选中指定神器；配置为空则使用默认选中</t>
+  </si>
+  <si>
+    <t>神器组件页</t>
+  </si>
+  <si>
+    <t>组件ID</t>
+  </si>
+  <si>
+    <t>熔炼打造页</t>
+  </si>
+  <si>
     <t>背包全部页</t>
   </si>
   <si>
@@ -112,82 +259,6 @@
     <t>决定跳转后，是否选中指定物品；配置为空则使用默认选中</t>
   </si>
   <si>
-    <t>寄灵人列表</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定寄灵人；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>寄灵人属性页</t>
-  </si>
-  <si>
-    <t>寄灵人ID</t>
-  </si>
-  <si>
-    <t>参数不可为空</t>
-  </si>
-  <si>
-    <t>寄灵人技能页</t>
-  </si>
-  <si>
-    <t>寄灵人升星页</t>
-  </si>
-  <si>
-    <t>寄灵人培养页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人缘分页</t>
-  </si>
-  <si>
-    <t>守护灵列表</t>
-  </si>
-  <si>
-    <t>守护灵ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定守护灵；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>守护灵奥义升级页</t>
-  </si>
-  <si>
-    <t>守护灵奥义觉醒页</t>
-  </si>
-  <si>
-    <t>守护灵升星页</t>
-  </si>
-  <si>
-    <t>守护灵武灵技学习页</t>
-  </si>
-  <si>
-    <t>守护灵缘分页</t>
-  </si>
-  <si>
-    <t>地狱道</t>
-  </si>
-  <si>
-    <t>武灵技背包全部页</t>
-  </si>
-  <si>
-    <t>武灵技ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定武灵技；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>神器ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定神器；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>神器组件页</t>
-  </si>
-  <si>
-    <t>组件ID</t>
-  </si>
-  <si>
     <t>日常活动页</t>
   </si>
   <si>
@@ -209,102 +280,52 @@
     <t>决定跳转后，是否选中指定成就组；配置为空则使用默认选中</t>
   </si>
   <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>商店ID</t>
+  </si>
+  <si>
+    <t>决定跳转后，是否切换到指定商店；配置为空则使用默认选中</t>
+  </si>
+  <si>
     <t>通灵</t>
   </si>
   <si>
-    <t>冒险</t>
-  </si>
-  <si>
-    <t>章ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否切换到指定章；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>关卡详情页</t>
-  </si>
-  <si>
-    <t>关卡ID</t>
-  </si>
-  <si>
-    <t>商店ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否切换到指定商店；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>集训营</t>
-  </si>
-  <si>
-    <t>集训组ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定集训组；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>门ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定门；配置为空则使用默认选中</t>
-  </si>
-  <si>
-    <t>恶灵组ID</t>
-  </si>
-  <si>
-    <t>决定跳转后，是否选中指定恶灵组；配置为空则使用默认选中</t>
+    <t>竞技场对阵页</t>
   </si>
   <si>
     <t>竞技场战报页</t>
   </si>
   <si>
+    <t>竞技场排行页</t>
+  </si>
+  <si>
+    <t>购买商品</t>
+  </si>
+  <si>
+    <t>商品ID</t>
+  </si>
+  <si>
+    <t>兑换金币</t>
+  </si>
+  <si>
     <t>打开宝箱</t>
   </si>
   <si>
     <t>获取途径</t>
   </si>
   <si>
-    <t>兑换金币</t>
-  </si>
-  <si>
-    <t>购买商品</t>
-  </si>
-  <si>
-    <t>商品ID</t>
-  </si>
-  <si>
-    <t>int:&lt;&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string:&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#note</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>派遣挂机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵升级页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>抽卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>界面Id，</t>
     </r>
     <r>
@@ -312,100 +333,33 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>1寄灵人，2守护灵</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>芦花古楼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶灵入侵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场排行页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>竞技场对阵页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵武器强化页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人天赋页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵武器解封页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵突破页</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>param</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>点金手</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>技能分解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -414,28 +368,191 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,43 +560,22 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,58 +584,233 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34934537797173987"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34934537797174"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -557,79 +828,376 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" applyFont="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="38" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyFont="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="15">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="60">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="33" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="55">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+  <cellStyles count="61">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
     <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
+    <cellStyle name="差" xfId="8" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="10" builtinId="40"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="英文标题" xfId="15"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="22" builtinId="17"/>
+    <cellStyle name="因变Grid" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="Grid" xfId="33"/>
+    <cellStyle name="汇总" xfId="34" builtinId="25"/>
+    <cellStyle name="好" xfId="35" builtinId="26"/>
+    <cellStyle name="适中" xfId="36" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="37" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="39" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="40" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="41" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="42" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="43" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="44" builtinId="41"/>
+    <cellStyle name="纵向标题" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="46" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="47" builtinId="43"/>
+    <cellStyle name="大标题" xfId="48"/>
+    <cellStyle name="强调文字颜色 5" xfId="49" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="50" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="51" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="52" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="53" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="54" builtinId="52"/>
+    <cellStyle name="Normal" xfId="55"/>
+    <cellStyle name="常规 2" xfId="56"/>
+    <cellStyle name="超链接 2" xfId="57"/>
+    <cellStyle name="文本" xfId="58"/>
+    <cellStyle name="无效" xfId="59"/>
+    <cellStyle name="中文标题" xfId="60"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -887,24 +1455,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="27.125" customWidth="1"/>
@@ -915,7 +1478,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -929,19 +1492,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="47.25" customHeight="1" spans="1:8">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -951,7 +1514,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="57.75" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -961,7 +1524,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="54" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -971,7 +1534,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="55.5" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -981,626 +1544,627 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="26.75" customWidth="1"/>
     <col min="3" max="3" width="42" customWidth="1"/>
     <col min="4" max="4" width="63.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" ht="15" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
       <c r="A4" s="3">
         <v>10101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:4">
       <c r="A5" s="3">
         <v>10102</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:4">
       <c r="A6" s="3">
         <v>10201</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:4">
       <c r="A7" s="3">
         <v>10301</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:4">
       <c r="A8" s="3">
         <v>10401</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:4">
       <c r="A9" s="3">
         <v>10501</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="10" ht="16.5" spans="1:4">
       <c r="A10" s="3">
         <v>20100</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:4">
       <c r="A11" s="3">
         <v>20101</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:4">
       <c r="A12" s="3">
         <v>20102</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:4">
       <c r="A13" s="3">
         <v>20103</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="3">
         <v>20104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:4">
       <c r="A15" s="3">
         <v>20105</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:4">
       <c r="A16" s="3">
         <v>20106</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" ht="16.5" spans="1:4">
       <c r="A17" s="3">
         <v>20200</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:4">
       <c r="A18" s="3">
         <v>20201</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:4">
       <c r="A19" s="3">
         <v>20202</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:4">
       <c r="A20" s="3">
         <v>20203</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:4">
       <c r="A21" s="3">
         <v>20204</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:4">
       <c r="A22" s="3">
         <v>20205</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:4">
       <c r="A23" s="3">
         <v>20206</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:4">
       <c r="A24" s="3">
         <v>20207</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:4">
       <c r="A25" s="3">
         <v>20208</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:4">
       <c r="A26" s="3">
         <v>20209</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:4">
       <c r="A27" s="3">
         <v>20300</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="28" ht="16.5" spans="1:4">
       <c r="A28" s="3">
         <v>20400</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:4">
       <c r="A29" s="3">
         <v>20500</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:4">
       <c r="A30" s="3">
         <v>20501</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:4">
       <c r="A31" s="3">
+        <v>20600</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" ht="16.5" spans="1:4">
+      <c r="A32" s="3">
         <v>30000</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="B32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:4">
+      <c r="A33" s="3">
         <v>30101</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="B33" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="3">
         <v>30102</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="B34" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="3">
         <v>30103</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="3">
         <v>30200</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="B36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:4">
+      <c r="A37" s="3">
         <v>30300</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>40101</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>81</v>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="38" ht="16.5" spans="1:4">
       <c r="A38" s="3">
-        <v>40102</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>62</v>
+        <v>40101</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="16.5" spans="1:4">
       <c r="A39" s="3">
-        <v>40103</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>80</v>
+        <v>40102</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="40" ht="19.5" customHeight="1" spans="1:4">
       <c r="A40" s="3">
+        <v>40103</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" ht="16.5" spans="1:4">
+      <c r="A41" s="3">
         <v>50100</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:4">
+      <c r="A42" s="3">
+        <v>50200</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" ht="16.5" spans="1:4">
+      <c r="A43" s="3">
+        <v>50300</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>50200</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>50300</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:4">
+      <c r="A44" s="3">
         <v>50400</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="B44" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:4">
+      <c r="A45" s="3">
         <v>50500</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="B45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" ht="16.5" spans="1:4">
+      <c r="A46" s="3">
         <v>60100</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>60200</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>90</v>
@@ -1608,14 +2172,25 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
+    <row r="47" ht="16.5" spans="1:4">
+      <c r="A47" s="3">
+        <v>60200</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:D3">
-    <sortState ref="A4:D43">
+  <autoFilter ref="A3:D47">
+    <sortState ref="A3:D47">
       <sortCondition ref="A3"/>
     </sortState>
+    <extLst/>
   </autoFilter>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/镇魂街/jump.跳转表.xlsx
+++ b/Excel/镇魂街/jump.跳转表.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\CeHua\trunk\ZHJStaffSpace\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D49D312-9AEC-4304-B19A-A2BEEF2D9BBB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
-    <sheet name="跳转类型" sheetId="26" state="hidden" r:id="rId2"/>
+    <sheet name="跳转类型" sheetId="26" r:id="rId2"/>
     <sheet name="材料跳转" sheetId="27" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">跳转类型!$A$3:$D$49</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -868,7 +861,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1098,20 +1091,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="13" applyFont="1"/>
   </cellXfs>
   <cellStyles count="14">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="7"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="8"/>
-    <cellStyle name="常规 3" xfId="13"/>
-    <cellStyle name="超链接 2" xfId="9"/>
-    <cellStyle name="大标题" xfId="6"/>
-    <cellStyle name="横向标题" xfId="1"/>
-    <cellStyle name="文本" xfId="10"/>
-    <cellStyle name="无效" xfId="11"/>
-    <cellStyle name="因变Grid" xfId="3"/>
-    <cellStyle name="英文标题" xfId="2"/>
-    <cellStyle name="中文标题" xfId="12"/>
-    <cellStyle name="纵向标题" xfId="5"/>
+    <cellStyle name="常规 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 3" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="超链接 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="大标题" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="横向标题" xfId="1" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="文本" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="无效" xfId="11" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="因变Grid" xfId="3" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="英文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="中文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="纵向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1383,11 +1376,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1488,11 +1481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2125,7 +2118,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40103</v>
       </c>
@@ -2140,7 +2133,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>40201</v>
       </c>
@@ -2249,8 +2242,8 @@
       <c r="E49" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D49">
-    <sortState ref="A3:D49">
+  <autoFilter ref="A3:D49" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D49">
       <sortCondition ref="A3"/>
     </sortState>
   </autoFilter>
@@ -2261,11 +2254,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G841"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
